--- a/openstudio-standards/lib/openstudio-standards/btap/FutureUse_Weather-System_Data.xlsx
+++ b/openstudio-standards/lib/openstudio-standards/btap/FutureUse_Weather-System_Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="368">
   <si>
     <t>file</t>
   </si>
@@ -406,9 +406,6 @@
     <t>hdd18</t>
   </si>
   <si>
-    <t xml:space="preserve">  12_570</t>
-  </si>
-  <si>
     <t>cdd18</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">  'FuelOil#2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'FuelOil#1'</t>
   </si>
   <si>
     <t>baseboard_type</t>
@@ -1482,8 +1476,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,161 +1532,161 @@
         <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G2">
-        <v>3134</v>
+        <v>5146</v>
       </c>
       <c r="H2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>49.03</v>
+        <v>51.12</v>
       </c>
       <c r="J2">
-        <v>-122.37</v>
+        <v>-114.02</v>
       </c>
       <c r="K2">
-        <v>58</v>
+        <v>1084</v>
       </c>
       <c r="L2">
-        <v>14.3</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>138</v>
+        <v>25</v>
+      </c>
+      <c r="M2" s="3">
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G3">
-        <v>5912</v>
+        <v>5583</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>49.92</v>
+        <v>53.53</v>
       </c>
       <c r="J3">
-        <v>-99.95</v>
+        <v>-114.1</v>
       </c>
       <c r="K3">
-        <v>409</v>
+        <v>723</v>
       </c>
       <c r="L3">
-        <v>36.700000000000003</v>
+        <v>27.5</v>
       </c>
       <c r="M3" s="3">
         <v>7</v>
@@ -1698,140 +1695,140 @@
         <v>141</v>
       </c>
       <c r="O3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G4">
-        <v>9114</v>
+        <v>6191</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I4">
-        <v>58.75</v>
+        <v>56.65</v>
       </c>
       <c r="J4">
-        <v>-94.07</v>
+        <v>-111.22</v>
       </c>
       <c r="K4">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="L4">
-        <v>37.700000000000003</v>
+        <v>33.5</v>
       </c>
       <c r="M4" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" t="s">
         <v>141</v>
       </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>360</v>
       </c>
       <c r="G5">
-        <v>6442</v>
+        <v>5897</v>
       </c>
       <c r="H5">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>53.97</v>
+        <v>55.18</v>
       </c>
       <c r="J5">
-        <v>-101.1</v>
+        <v>-118.88</v>
       </c>
       <c r="K5">
-        <v>271</v>
+        <v>669</v>
       </c>
       <c r="L5">
-        <v>37.9</v>
+        <v>28.9</v>
       </c>
       <c r="M5" s="3">
         <v>7</v>
@@ -1840,113 +1837,113 @@
         <v>141</v>
       </c>
       <c r="O5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="G6">
-        <v>5754</v>
+        <v>4432</v>
       </c>
       <c r="H6">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="I6">
-        <v>49.9</v>
+        <v>49.63</v>
       </c>
       <c r="J6">
-        <v>-97.23</v>
+        <v>-112.8</v>
       </c>
       <c r="K6">
-        <v>239</v>
+        <v>921</v>
       </c>
       <c r="L6">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="M6" s="3">
-        <v>7</v>
+        <v>26.5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="N6" t="s">
         <v>141</v>
       </c>
       <c r="O6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
@@ -1955,211 +1952,211 @@
         <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="G7">
-        <v>5146</v>
+        <v>4678</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="I7">
-        <v>51.12</v>
+        <v>50.02</v>
       </c>
       <c r="J7">
-        <v>-114.02</v>
+        <v>-110.72</v>
       </c>
       <c r="K7">
-        <v>1084</v>
+        <v>716</v>
       </c>
       <c r="L7">
-        <v>25</v>
-      </c>
-      <c r="M7" s="3">
-        <v>7</v>
+        <v>31.6</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="N7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G8">
-        <v>6462</v>
+        <v>3134</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I8">
-        <v>52.3</v>
+        <v>49.03</v>
       </c>
       <c r="J8">
-        <v>-55.83</v>
+        <v>-122.37</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="L8">
-        <v>21.6</v>
-      </c>
-      <c r="M8" s="3">
-        <v>7</v>
+        <v>14.3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="N8" t="s">
         <v>141</v>
       </c>
       <c r="O8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G9">
-        <v>5101</v>
+        <v>3177</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>48.95</v>
+        <v>49.72</v>
       </c>
       <c r="J9">
-        <v>-54.57</v>
+        <v>-124.9</v>
       </c>
       <c r="K9">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="L9">
-        <v>22.6</v>
-      </c>
-      <c r="M9" s="3">
-        <v>7</v>
+        <v>15.2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="N9" t="s">
         <v>141</v>
       </c>
       <c r="O9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -2168,69 +2165,69 @@
         <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G10">
-        <v>3177</v>
+        <v>4645</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="I10">
-        <v>49.72</v>
+        <v>49.6</v>
       </c>
       <c r="J10">
-        <v>-124.9</v>
+        <v>-115.78</v>
       </c>
       <c r="K10">
-        <v>24</v>
+        <v>940</v>
       </c>
       <c r="L10">
-        <v>15.2</v>
+        <v>26.6</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -2239,282 +2236,282 @@
         <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G11">
-        <v>4645</v>
+        <v>5863</v>
       </c>
       <c r="H11">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>49.6</v>
+        <v>56.23</v>
       </c>
       <c r="J11">
-        <v>-115.78</v>
+        <v>-120.73</v>
       </c>
       <c r="K11">
-        <v>940</v>
+        <v>695</v>
       </c>
       <c r="L11">
-        <v>26.6</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>137</v>
+        <v>29.1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G12">
-        <v>5583</v>
+        <v>3629</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="I12">
-        <v>53.53</v>
+        <v>50.7</v>
       </c>
       <c r="J12">
-        <v>-114.1</v>
+        <v>-120.45</v>
       </c>
       <c r="K12">
-        <v>723</v>
+        <v>346</v>
       </c>
       <c r="L12">
-        <v>27.5</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7</v>
+        <v>25.6</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>356</v>
+        <v>90</v>
       </c>
       <c r="G13">
-        <v>5370</v>
+        <v>3712</v>
       </c>
       <c r="H13">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>49.22</v>
+        <v>50.68</v>
       </c>
       <c r="J13">
-        <v>-102.97</v>
+        <v>-127.37</v>
       </c>
       <c r="K13">
-        <v>581</v>
+        <v>22</v>
       </c>
       <c r="L13">
-        <v>35.1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>7</v>
+        <v>10.8</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>357</v>
+        <v>91</v>
       </c>
       <c r="G14">
-        <v>6191</v>
+        <v>5070</v>
       </c>
       <c r="H14">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>56.65</v>
+        <v>53.88</v>
       </c>
       <c r="J14">
-        <v>-111.22</v>
+        <v>-122.68</v>
       </c>
       <c r="K14">
-        <v>369</v>
+        <v>691</v>
       </c>
       <c r="L14">
-        <v>33.5</v>
+        <v>26</v>
       </c>
       <c r="M14" s="3">
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -2523,167 +2520,167 @@
         <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>358</v>
+        <v>92</v>
       </c>
       <c r="G15">
-        <v>5863</v>
+        <v>4151</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>56.23</v>
+        <v>54.3</v>
       </c>
       <c r="J15">
-        <v>-120.73</v>
+        <v>-130.43</v>
       </c>
       <c r="K15">
-        <v>695</v>
+        <v>34</v>
       </c>
       <c r="L15">
-        <v>29.1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7</v>
+        <v>13.5</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>4734</v>
+        <v>3644</v>
       </c>
       <c r="H16">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>45.87</v>
+        <v>53.25</v>
       </c>
       <c r="J16">
-        <v>-66.53</v>
+        <v>-131.82</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>29.5</v>
+        <v>13.1</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C17" t="s">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="G17">
-        <v>6558</v>
+        <v>5265</v>
       </c>
       <c r="H17">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I17">
-        <v>53.32</v>
+        <v>54.82</v>
       </c>
       <c r="J17">
-        <v>-60.37</v>
+        <v>-127.18</v>
       </c>
       <c r="K17">
-        <v>49</v>
+        <v>523</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>24.2</v>
       </c>
       <c r="M17" s="3">
         <v>7</v>
@@ -2692,1675 +2689,1675 @@
         <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G18">
-        <v>4886</v>
+        <v>3388</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="I18">
-        <v>47.62</v>
+        <v>49.57</v>
       </c>
       <c r="J18">
-        <v>-52.73</v>
+        <v>-119.65</v>
       </c>
       <c r="K18">
-        <v>140</v>
+        <v>479</v>
       </c>
       <c r="L18">
-        <v>20.5</v>
+        <v>21.8</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N18" t="s">
         <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T18" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U18" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>362</v>
+        <v>123</v>
       </c>
       <c r="G19">
-        <v>5897</v>
+        <v>3019</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>55.18</v>
+        <v>49.18</v>
       </c>
       <c r="J19">
-        <v>-118.88</v>
+        <v>-123.17</v>
       </c>
       <c r="K19">
-        <v>669</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>28.9</v>
-      </c>
-      <c r="M19" s="3">
-        <v>7</v>
+        <v>13.9</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="N19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>363</v>
+        <v>124</v>
       </c>
       <c r="G20">
-        <v>4131</v>
+        <v>3075</v>
       </c>
       <c r="H20">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>44.98</v>
+        <v>48.65</v>
       </c>
       <c r="J20">
-        <v>-64.92</v>
+        <v>-123.43</v>
       </c>
       <c r="K20">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L20">
-        <v>23.8</v>
+        <v>12.3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="G21">
-        <v>4724</v>
+        <v>5912</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="I21">
-        <v>48.53</v>
+        <v>49.92</v>
       </c>
       <c r="J21">
-        <v>-58.55</v>
+        <v>-99.95</v>
       </c>
       <c r="K21">
-        <v>26</v>
+        <v>409</v>
       </c>
       <c r="L21">
-        <v>23.1</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>137</v>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="M21" s="3">
+        <v>7</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G22">
-        <v>9952</v>
+        <v>9114</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>68.3</v>
+        <v>58.75</v>
       </c>
       <c r="J22">
-        <v>-133.47999999999999</v>
+        <v>-94.07</v>
       </c>
       <c r="K22">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L22">
-        <v>40.6</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="M22" s="3">
         <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>366</v>
+        <v>116</v>
       </c>
       <c r="G23">
-        <v>3629</v>
+        <v>6442</v>
       </c>
       <c r="H23">
-        <v>287</v>
+        <v>106</v>
       </c>
       <c r="I23">
-        <v>50.7</v>
+        <v>53.97</v>
       </c>
       <c r="J23">
-        <v>-120.45</v>
+        <v>-101.1</v>
       </c>
       <c r="K23">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="L23">
-        <v>25.6</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>369</v>
+        <v>37.9</v>
+      </c>
+      <c r="M23" s="3">
+        <v>7</v>
       </c>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T23" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U23" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="G24">
-        <v>4287</v>
+        <v>5754</v>
       </c>
       <c r="H24">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="I24">
-        <v>44.22</v>
+        <v>49.9</v>
       </c>
       <c r="J24">
-        <v>-76.599999999999994</v>
+        <v>-97.23</v>
       </c>
       <c r="K24">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="L24">
-        <v>27.7</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>137</v>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="M24" s="3">
+        <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T24" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U24" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G25">
-        <v>4647</v>
+        <v>4734</v>
       </c>
       <c r="H25">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="I25">
-        <v>46.28</v>
+        <v>45.87</v>
       </c>
       <c r="J25">
-        <v>-63.13</v>
+        <v>-66.53</v>
       </c>
       <c r="K25">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L25">
-        <v>25.6</v>
+        <v>29.5</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N25" t="s">
         <v>141</v>
       </c>
       <c r="O25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T25" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U25" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="G26">
-        <v>5781</v>
+        <v>4921</v>
       </c>
       <c r="H26">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I26">
-        <v>48.33</v>
+        <v>47.02</v>
       </c>
       <c r="J26">
-        <v>-71</v>
+        <v>-65.45</v>
       </c>
       <c r="K26">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="L26">
-        <v>32.4</v>
-      </c>
-      <c r="M26" s="3">
-        <v>7</v>
+        <v>29.6</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N26" t="s">
         <v>141</v>
       </c>
       <c r="O26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T26" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U26" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>347</v>
+        <v>99</v>
       </c>
       <c r="G27">
-        <v>5889</v>
+        <v>4695</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I27">
-        <v>49.13</v>
+        <v>45.32</v>
       </c>
       <c r="J27">
-        <v>-68.2</v>
+        <v>-65.88</v>
       </c>
       <c r="K27">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="L27">
-        <v>29.8</v>
-      </c>
-      <c r="M27" s="3">
-        <v>7</v>
+        <v>23.8</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N27" t="s">
         <v>141</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T27" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U27" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="G28">
-        <v>4941</v>
+        <v>6462</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>47.38</v>
+        <v>52.3</v>
       </c>
       <c r="J28">
-        <v>-61.87</v>
+        <v>-55.83</v>
       </c>
       <c r="K28">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>23.8</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>137</v>
+        <v>21.6</v>
+      </c>
+      <c r="M28" s="3">
+        <v>7</v>
       </c>
       <c r="N28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="G29">
-        <v>4432</v>
+        <v>5101</v>
       </c>
       <c r="H29">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>49.63</v>
+        <v>48.95</v>
       </c>
       <c r="J29">
-        <v>-112.8</v>
+        <v>-54.57</v>
       </c>
       <c r="K29">
-        <v>921</v>
+        <v>151</v>
       </c>
       <c r="L29">
-        <v>26.5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>136</v>
+        <v>22.6</v>
+      </c>
+      <c r="M29" s="3">
+        <v>7</v>
       </c>
       <c r="N29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T29" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U29" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30">
+        <v>6558</v>
+      </c>
+      <c r="H30">
+        <v>38</v>
+      </c>
+      <c r="I30">
+        <v>53.32</v>
+      </c>
+      <c r="J30">
+        <v>-60.37</v>
+      </c>
+      <c r="K30">
+        <v>49</v>
+      </c>
+      <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30" s="3">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30">
-        <v>4111</v>
-      </c>
-      <c r="H30">
-        <v>211</v>
-      </c>
-      <c r="I30">
-        <v>43.03</v>
-      </c>
-      <c r="J30">
-        <v>-81.150000000000006</v>
-      </c>
-      <c r="K30">
-        <v>278</v>
-      </c>
-      <c r="L30">
-        <v>27.9</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="N30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T30" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U30" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G31">
-        <v>4678</v>
+        <v>4886</v>
       </c>
       <c r="H31">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="I31">
-        <v>50.02</v>
+        <v>47.62</v>
       </c>
       <c r="J31">
-        <v>-110.72</v>
+        <v>-52.73</v>
       </c>
       <c r="K31">
-        <v>716</v>
+        <v>140</v>
       </c>
       <c r="L31">
-        <v>31.6</v>
+        <v>20.5</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T31" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U31" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G32">
-        <v>4921</v>
+        <v>4724</v>
       </c>
       <c r="H32">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>47.02</v>
+        <v>48.53</v>
       </c>
       <c r="J32">
-        <v>-65.45</v>
+        <v>-58.55</v>
       </c>
       <c r="K32">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L32">
-        <v>29.6</v>
+        <v>23.1</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T32" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U32" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D33" t="s">
         <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G33">
-        <v>7986</v>
+        <v>4131</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I33">
-        <v>55.28</v>
+        <v>44.98</v>
       </c>
       <c r="J33">
-        <v>-77.77</v>
+        <v>-64.92</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L33">
-        <v>32</v>
-      </c>
-      <c r="M33" s="3">
-        <v>8</v>
+        <v>23.8</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N33" t="s">
         <v>141</v>
       </c>
       <c r="O33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T33" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U33" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G34">
-        <v>8491</v>
+        <v>3860</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I34">
-        <v>58.1</v>
+        <v>43.93</v>
       </c>
       <c r="J34">
-        <v>-68.42</v>
+        <v>-60.02</v>
       </c>
       <c r="K34">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>31.8</v>
-      </c>
-      <c r="M34" s="3">
-        <v>8</v>
+        <v>18.3</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="N34" t="s">
         <v>141</v>
       </c>
       <c r="O34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T34" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U34" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="G35">
-        <v>7616</v>
+        <v>4197</v>
       </c>
       <c r="H35">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I35">
-        <v>53.63</v>
+        <v>44.63</v>
       </c>
       <c r="J35">
-        <v>-77.7</v>
+        <v>-63.5</v>
       </c>
       <c r="K35">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="L35">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="M35" s="3">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N35" t="s">
         <v>141</v>
       </c>
       <c r="O35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T35" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U35" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="G36">
-        <v>7383</v>
+        <v>4634</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I36">
-        <v>51.87</v>
+        <v>46.17</v>
       </c>
       <c r="J36">
-        <v>-63.28</v>
+        <v>-60.05</v>
       </c>
       <c r="K36">
-        <v>561</v>
+        <v>62</v>
       </c>
       <c r="L36">
-        <v>33.9</v>
-      </c>
-      <c r="M36" s="3">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N36" t="s">
         <v>141</v>
       </c>
       <c r="O36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T36" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U36" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G37">
-        <v>4578</v>
+        <v>4537</v>
       </c>
       <c r="H37">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="I37">
-        <v>43.98</v>
+        <v>45.37</v>
       </c>
       <c r="J37">
-        <v>-80.75</v>
+        <v>-63.27</v>
       </c>
       <c r="K37">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="L37">
-        <v>27.7</v>
+        <v>25.2</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="D38" t="s">
         <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="G38">
-        <v>4774</v>
+        <v>9952</v>
       </c>
       <c r="H38">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>44.97</v>
+        <v>68.3</v>
       </c>
       <c r="J38">
-        <v>-79.3</v>
+        <v>-133.47999999999999</v>
       </c>
       <c r="K38">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="L38">
-        <v>29.3</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>137</v>
+        <v>40.6</v>
+      </c>
+      <c r="M38" s="3">
+        <v>8</v>
       </c>
       <c r="N38" t="s">
         <v>142</v>
       </c>
       <c r="O38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T38" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U38" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G39">
-        <v>5522</v>
+        <v>12570</v>
       </c>
       <c r="H39">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>48.6</v>
+        <v>74.72</v>
       </c>
       <c r="J39">
-        <v>-68.22</v>
+        <v>-94.98</v>
       </c>
       <c r="K39">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L39">
-        <v>30.8</v>
+        <v>35.9</v>
       </c>
       <c r="M39" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="D40" t="s">
         <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>365</v>
       </c>
       <c r="G40">
-        <v>5962</v>
+        <v>4287</v>
       </c>
       <c r="H40">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="I40">
-        <v>52.77</v>
+        <v>44.22</v>
       </c>
       <c r="J40">
-        <v>-108.25</v>
+        <v>-76.599999999999994</v>
       </c>
       <c r="K40">
-        <v>548</v>
+        <v>93</v>
       </c>
       <c r="L40">
-        <v>35.4</v>
-      </c>
-      <c r="M40" s="3">
-        <v>7</v>
+        <v>27.7</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>59</v>
@@ -4369,69 +4366,69 @@
         <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G41">
-        <v>5341</v>
+        <v>4111</v>
       </c>
       <c r="H41">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="I41">
-        <v>46.35</v>
+        <v>43.03</v>
       </c>
       <c r="J41">
-        <v>-79.430000000000007</v>
+        <v>-81.150000000000006</v>
       </c>
       <c r="K41">
-        <v>371</v>
+        <v>278</v>
       </c>
       <c r="L41">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="M41" s="3">
-        <v>7</v>
+        <v>27.9</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>59</v>
@@ -4440,992 +4437,992 @@
         <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G42">
-        <v>4664</v>
+        <v>4578</v>
       </c>
       <c r="H42">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="I42">
-        <v>45.32</v>
+        <v>43.98</v>
       </c>
       <c r="J42">
-        <v>-75.67</v>
+        <v>-80.75</v>
       </c>
       <c r="K42">
-        <v>114</v>
+        <v>415</v>
       </c>
       <c r="L42">
-        <v>31.8</v>
+        <v>27.7</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G43">
-        <v>3712</v>
+        <v>4774</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I43">
-        <v>50.68</v>
+        <v>44.97</v>
       </c>
       <c r="J43">
-        <v>-127.37</v>
+        <v>-79.3</v>
       </c>
       <c r="K43">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="L43">
-        <v>10.8</v>
+        <v>29.3</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G44">
-        <v>5070</v>
+        <v>5341</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I44">
-        <v>53.88</v>
+        <v>46.35</v>
       </c>
       <c r="J44">
-        <v>-122.68</v>
+        <v>-79.430000000000007</v>
       </c>
       <c r="K44">
-        <v>691</v>
+        <v>371</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="M44" s="3">
         <v>7</v>
       </c>
       <c r="N44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
         <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G45">
-        <v>4151</v>
+        <v>4664</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I45">
-        <v>54.3</v>
+        <v>45.32</v>
       </c>
       <c r="J45">
-        <v>-130.43</v>
+        <v>-75.67</v>
       </c>
       <c r="K45">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="L45">
-        <v>13.5</v>
+        <v>31.8</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
         <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="G46">
-        <v>4493</v>
+        <v>4993</v>
       </c>
       <c r="H46">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="I46">
-        <v>45.47</v>
+        <v>46.48</v>
       </c>
       <c r="J46">
-        <v>-73.75</v>
+        <v>-84.52</v>
       </c>
       <c r="K46">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="L46">
-        <v>30.2</v>
+        <v>28.3</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N46" t="s">
         <v>141</v>
       </c>
       <c r="O46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T46" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U46" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
         <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G47">
-        <v>5646</v>
+        <v>4066</v>
       </c>
       <c r="H47">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="I47">
-        <v>50.43</v>
+        <v>42.85</v>
       </c>
       <c r="J47">
-        <v>-104.67</v>
+        <v>-80.27</v>
       </c>
       <c r="K47">
-        <v>577</v>
+        <v>241</v>
       </c>
       <c r="L47">
-        <v>35.4</v>
-      </c>
-      <c r="M47" s="3">
-        <v>7</v>
+        <v>26.4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="G48">
+        <v>5624</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I48">
-        <v>74.72</v>
+        <v>48.37</v>
       </c>
       <c r="J48">
-        <v>-94.98</v>
+        <v>-89.32</v>
       </c>
       <c r="K48">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="L48">
-        <v>35.9</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="M48" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T48" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U48" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
         <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="G49">
-        <v>4616</v>
+        <v>5952</v>
       </c>
       <c r="H49">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="I49">
-        <v>45.5</v>
+        <v>48.57</v>
       </c>
       <c r="J49">
-        <v>-73.62</v>
+        <v>-81.37</v>
       </c>
       <c r="K49">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="L49">
-        <v>31.2</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>137</v>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="M49" s="3">
+        <v>7</v>
       </c>
       <c r="N49" t="s">
         <v>141</v>
       </c>
       <c r="O49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T49" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U49" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="G50">
-        <v>4861</v>
+        <v>4088</v>
       </c>
       <c r="H50">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="I50">
-        <v>45.68</v>
+        <v>43.67</v>
       </c>
       <c r="J50">
-        <v>-74.03</v>
+        <v>-79.63</v>
       </c>
       <c r="K50">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="L50">
-        <v>33.4</v>
+        <v>26.6</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N50" t="s">
         <v>141</v>
       </c>
       <c r="O50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T50" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U50" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G51">
-        <v>3860</v>
+        <v>4176</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="I51">
-        <v>43.93</v>
+        <v>44.12</v>
       </c>
       <c r="J51">
-        <v>-60.02</v>
+        <v>-77.53</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="L51">
-        <v>18.3</v>
+        <v>27.7</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B52" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
         <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="G52">
-        <v>4695</v>
+        <v>3570</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="I52">
-        <v>45.32</v>
+        <v>42.27</v>
       </c>
       <c r="J52">
-        <v>-65.88</v>
+        <v>-82.97</v>
       </c>
       <c r="K52">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="L52">
-        <v>23.8</v>
+        <v>27.1</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="D53" t="s">
         <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="G53">
-        <v>3644</v>
+        <v>4647</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I53">
-        <v>53.25</v>
+        <v>46.28</v>
       </c>
       <c r="J53">
-        <v>-131.82</v>
+        <v>-63.13</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="L53">
-        <v>13.1</v>
+        <v>25.6</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T53" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U53" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="G54">
-        <v>5812</v>
+        <v>5781</v>
       </c>
       <c r="H54">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I54">
-        <v>52.17</v>
+        <v>48.33</v>
       </c>
       <c r="J54">
-        <v>-106.68</v>
+        <v>-71</v>
       </c>
       <c r="K54">
-        <v>504</v>
+        <v>159</v>
       </c>
       <c r="L54">
-        <v>34.4</v>
+        <v>32.4</v>
       </c>
       <c r="M54" s="3">
         <v>7</v>
       </c>
       <c r="N54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T54" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U54" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="D55" t="s">
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="G55">
-        <v>4993</v>
+        <v>5889</v>
       </c>
       <c r="H55">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>46.48</v>
+        <v>49.13</v>
       </c>
       <c r="J55">
-        <v>-84.52</v>
+        <v>-68.2</v>
       </c>
       <c r="K55">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="L55">
-        <v>28.3</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>137</v>
+        <v>29.8</v>
+      </c>
+      <c r="M55" s="3">
+        <v>7</v>
       </c>
       <c r="N55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T55" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U55" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="D56" t="s">
         <v>59</v>
@@ -5434,69 +5431,69 @@
         <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="G56">
-        <v>7922</v>
+        <v>4941</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I56">
-        <v>53.2</v>
+        <v>47.38</v>
       </c>
       <c r="J56">
-        <v>-70.900000000000006</v>
+        <v>-61.87</v>
       </c>
       <c r="K56">
-        <v>536</v>
+        <v>59</v>
       </c>
       <c r="L56">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="M56" s="3">
-        <v>8</v>
+        <v>23.8</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -5505,140 +5502,140 @@
         <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="G57">
-        <v>4964</v>
+        <v>7986</v>
       </c>
       <c r="H57">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I57">
-        <v>46.8</v>
+        <v>55.28</v>
       </c>
       <c r="J57">
-        <v>-71.38</v>
+        <v>-77.77</v>
       </c>
       <c r="K57">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="L57">
-        <v>31</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>137</v>
+        <v>32</v>
+      </c>
+      <c r="M57" s="3">
+        <v>8</v>
       </c>
       <c r="N57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="G58">
-        <v>4197</v>
+        <v>8491</v>
       </c>
       <c r="H58">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>44.63</v>
+        <v>58.1</v>
       </c>
       <c r="J58">
-        <v>-63.5</v>
+        <v>-68.42</v>
       </c>
       <c r="K58">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L58">
-        <v>22</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>137</v>
+        <v>31.8</v>
+      </c>
+      <c r="M58" s="3">
+        <v>8</v>
       </c>
       <c r="N58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T58" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U58" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
         <v>59</v>
@@ -5647,211 +5644,211 @@
         <v>61</v>
       </c>
       <c r="F59" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G59">
-        <v>5424</v>
+        <v>7616</v>
       </c>
       <c r="H59">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I59">
-        <v>47.8</v>
+        <v>53.63</v>
       </c>
       <c r="J59">
-        <v>-69.55</v>
+        <v>-77.7</v>
       </c>
       <c r="K59">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="L59">
-        <v>30.1</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="M59" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="G60">
-        <v>4066</v>
+        <v>7383</v>
       </c>
       <c r="H60">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="I60">
-        <v>42.85</v>
+        <v>51.87</v>
       </c>
       <c r="J60">
-        <v>-80.27</v>
+        <v>-63.28</v>
       </c>
       <c r="K60">
-        <v>241</v>
+        <v>561</v>
       </c>
       <c r="L60">
-        <v>26.4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>137</v>
+        <v>33.9</v>
+      </c>
+      <c r="M60" s="3">
+        <v>8</v>
       </c>
       <c r="N60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T60" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U60" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
         <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G61">
-        <v>5265</v>
+        <v>5522</v>
       </c>
       <c r="H61">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I61">
-        <v>54.82</v>
+        <v>48.6</v>
       </c>
       <c r="J61">
-        <v>-127.18</v>
+        <v>-68.22</v>
       </c>
       <c r="K61">
-        <v>523</v>
+        <v>52</v>
       </c>
       <c r="L61">
-        <v>24.2</v>
+        <v>30.8</v>
       </c>
       <c r="M61" s="3">
         <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T61" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U61" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>59</v>
@@ -5860,69 +5857,69 @@
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G62">
-        <v>5757</v>
+        <v>4493</v>
       </c>
       <c r="H62">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="I62">
-        <v>48.52</v>
+        <v>45.47</v>
       </c>
       <c r="J62">
-        <v>-72.27</v>
+        <v>-73.75</v>
       </c>
       <c r="K62">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="L62">
-        <v>35.6</v>
-      </c>
-      <c r="M62" s="3">
-        <v>7</v>
+        <v>30.2</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
         <v>59</v>
@@ -5931,69 +5928,69 @@
         <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G63">
-        <v>8057</v>
+        <v>4616</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="I63">
-        <v>54.8</v>
+        <v>45.5</v>
       </c>
       <c r="J63">
-        <v>-66.819999999999993</v>
+        <v>-73.62</v>
       </c>
       <c r="K63">
-        <v>521</v>
+        <v>133</v>
       </c>
       <c r="L63">
-        <v>34.6</v>
-      </c>
-      <c r="M63" s="3">
-        <v>8</v>
+        <v>31.2</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
         <v>59</v>
@@ -6002,69 +5999,69 @@
         <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G64">
-        <v>6134</v>
+        <v>4861</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="I64">
-        <v>50.22</v>
+        <v>45.68</v>
       </c>
       <c r="J64">
-        <v>-66.27</v>
+        <v>-74.03</v>
       </c>
       <c r="K64">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="L64">
-        <v>30.9</v>
-      </c>
-      <c r="M64" s="3">
-        <v>7</v>
+        <v>33.4</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="N64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
         <v>59</v>
@@ -6073,282 +6070,282 @@
         <v>61</v>
       </c>
       <c r="F65" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G65">
-        <v>5068</v>
+        <v>7922</v>
       </c>
       <c r="H65">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>45.43</v>
+        <v>53.2</v>
       </c>
       <c r="J65">
-        <v>-71.680000000000007</v>
+        <v>-70.900000000000006</v>
       </c>
       <c r="K65">
-        <v>241</v>
+        <v>536</v>
       </c>
       <c r="L65">
-        <v>28.2</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M65" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
         <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G66">
-        <v>3388</v>
+        <v>4964</v>
       </c>
       <c r="H66">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="I66">
-        <v>49.57</v>
+        <v>46.8</v>
       </c>
       <c r="J66">
-        <v>-119.65</v>
+        <v>-71.38</v>
       </c>
       <c r="K66">
-        <v>479</v>
+        <v>73</v>
       </c>
       <c r="L66">
-        <v>21.8</v>
+        <v>31</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T66" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U66" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
         <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G67">
-        <v>5227</v>
+        <v>5424</v>
       </c>
       <c r="H67">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I67">
-        <v>50.28</v>
+        <v>47.8</v>
       </c>
       <c r="J67">
-        <v>-107.68</v>
+        <v>-69.55</v>
       </c>
       <c r="K67">
-        <v>818</v>
+        <v>148</v>
       </c>
       <c r="L67">
-        <v>30.8</v>
+        <v>30.1</v>
       </c>
       <c r="M67" s="3">
         <v>7</v>
       </c>
       <c r="N67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T67" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U67" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
         <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G68">
-        <v>4634</v>
+        <v>5757</v>
       </c>
       <c r="H68">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I68">
-        <v>46.17</v>
+        <v>48.52</v>
       </c>
       <c r="J68">
-        <v>-60.05</v>
+        <v>-72.27</v>
       </c>
       <c r="K68">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="L68">
-        <v>24</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>137</v>
+        <v>35.6</v>
+      </c>
+      <c r="M68" s="3">
+        <v>7</v>
       </c>
       <c r="N68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T68" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U68" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
         <v>59</v>
@@ -6357,451 +6354,451 @@
         <v>61</v>
       </c>
       <c r="F69" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G69">
-        <v>4566</v>
+        <v>8057</v>
       </c>
       <c r="H69">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="I69">
-        <v>45.52</v>
+        <v>54.8</v>
       </c>
       <c r="J69">
-        <v>-73.42</v>
+        <v>-66.819999999999993</v>
       </c>
       <c r="K69">
-        <v>27</v>
+        <v>521</v>
       </c>
       <c r="L69">
-        <v>31.2</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>137</v>
+        <v>34.6</v>
+      </c>
+      <c r="M69" s="3">
+        <v>8</v>
       </c>
       <c r="N69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
         <v>59</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G70">
-        <v>5624</v>
+        <v>6134</v>
       </c>
       <c r="H70">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>48.37</v>
+        <v>50.22</v>
       </c>
       <c r="J70">
-        <v>-89.32</v>
+        <v>-66.27</v>
       </c>
       <c r="K70">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="L70">
-        <v>33.799999999999997</v>
+        <v>30.9</v>
       </c>
       <c r="M70" s="3">
         <v>7</v>
       </c>
       <c r="N70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T70" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U70" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
         <v>59</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G71">
-        <v>5952</v>
+        <v>5068</v>
       </c>
       <c r="H71">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I71">
-        <v>48.57</v>
+        <v>45.43</v>
       </c>
       <c r="J71">
-        <v>-81.37</v>
+        <v>-71.680000000000007</v>
       </c>
       <c r="K71">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="L71">
-        <v>33.799999999999997</v>
+        <v>28.2</v>
       </c>
       <c r="M71" s="3">
         <v>7</v>
       </c>
       <c r="N71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T71" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U71" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
         <v>59</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G72">
-        <v>4088</v>
+        <v>4566</v>
       </c>
       <c r="H72">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="I72">
-        <v>43.67</v>
+        <v>45.52</v>
       </c>
       <c r="J72">
-        <v>-79.63</v>
+        <v>-73.42</v>
       </c>
       <c r="K72">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="L72">
-        <v>26.6</v>
+        <v>31.2</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T72" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U72" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
         <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G73">
-        <v>4176</v>
+        <v>5350</v>
       </c>
       <c r="H73">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="I73">
-        <v>44.12</v>
+        <v>46.05</v>
       </c>
       <c r="J73">
-        <v>-77.53</v>
+        <v>-74.28</v>
       </c>
       <c r="K73">
-        <v>86</v>
+        <v>395</v>
       </c>
       <c r="L73">
-        <v>27.7</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>137</v>
+        <v>29.6</v>
+      </c>
+      <c r="M73" s="3">
+        <v>7</v>
       </c>
       <c r="N73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T73" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U73" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
         <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G74">
-        <v>4537</v>
+        <v>6129</v>
       </c>
       <c r="H74">
+        <v>79</v>
+      </c>
+      <c r="I74">
+        <v>48.07</v>
+      </c>
+      <c r="J74">
+        <v>-77.78</v>
+      </c>
+      <c r="K74">
+        <v>337</v>
+      </c>
+      <c r="L74">
         <v>35</v>
       </c>
-      <c r="I74">
-        <v>45.37</v>
-      </c>
-      <c r="J74">
-        <v>-63.27</v>
-      </c>
-      <c r="K74">
-        <v>40</v>
-      </c>
-      <c r="L74">
-        <v>25.2</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>137</v>
+      <c r="M74" s="3">
+        <v>7</v>
       </c>
       <c r="N74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T74" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="U74" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="D75" t="s">
         <v>59</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
-        <v>111</v>
+        <v>354</v>
       </c>
       <c r="G75">
-        <v>5350</v>
+        <v>5370</v>
       </c>
       <c r="H75">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="I75">
-        <v>46.05</v>
+        <v>49.22</v>
       </c>
       <c r="J75">
-        <v>-74.28</v>
+        <v>-102.97</v>
       </c>
       <c r="K75">
-        <v>395</v>
+        <v>581</v>
       </c>
       <c r="L75">
-        <v>29.6</v>
+        <v>35.1</v>
       </c>
       <c r="M75" s="3">
         <v>7</v>
@@ -6810,392 +6807,392 @@
         <v>141</v>
       </c>
       <c r="O75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T75" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U75" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>59</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="G76">
-        <v>3019</v>
+        <v>5962</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="I76">
-        <v>49.18</v>
+        <v>52.77</v>
       </c>
       <c r="J76">
-        <v>-123.17</v>
+        <v>-108.25</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>548</v>
       </c>
       <c r="L76">
-        <v>13.9</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>138</v>
+        <v>35.4</v>
+      </c>
+      <c r="M76" s="3">
+        <v>7</v>
       </c>
       <c r="N76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B77" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
         <v>59</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G77">
-        <v>3075</v>
+        <v>5646</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="I77">
-        <v>48.65</v>
+        <v>50.43</v>
       </c>
       <c r="J77">
-        <v>-123.43</v>
+        <v>-104.67</v>
       </c>
       <c r="K77">
-        <v>19</v>
+        <v>577</v>
       </c>
       <c r="L77">
-        <v>12.3</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>138</v>
+        <v>35.4</v>
+      </c>
+      <c r="M77" s="3">
+        <v>7</v>
       </c>
       <c r="N77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
         <v>59</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F78" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G78">
-        <v>6946</v>
+        <v>5812</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="I78">
-        <v>60.72</v>
+        <v>52.17</v>
       </c>
       <c r="J78">
-        <v>-135.07</v>
+        <v>-106.68</v>
       </c>
       <c r="K78">
-        <v>703</v>
+        <v>504</v>
       </c>
       <c r="L78">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="M78" s="3">
         <v>7</v>
       </c>
       <c r="N78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T78" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="U78" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="V78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D79" t="s">
         <v>59</v>
       </c>
       <c r="E79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G79">
-        <v>3570</v>
+        <v>5227</v>
       </c>
       <c r="H79">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="I79">
-        <v>42.27</v>
+        <v>50.28</v>
       </c>
       <c r="J79">
-        <v>-82.97</v>
+        <v>-107.68</v>
       </c>
       <c r="K79">
-        <v>190</v>
+        <v>818</v>
       </c>
       <c r="L79">
-        <v>27.1</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>139</v>
+        <v>30.8</v>
+      </c>
+      <c r="M79" s="3">
+        <v>7</v>
       </c>
       <c r="N79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D80" t="s">
         <v>59</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G80">
-        <v>6129</v>
+        <v>6946</v>
       </c>
       <c r="H80">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>48.07</v>
+        <v>60.72</v>
       </c>
       <c r="J80">
-        <v>-77.78</v>
+        <v>-135.07</v>
       </c>
       <c r="K80">
-        <v>337</v>
+        <v>703</v>
       </c>
       <c r="L80">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="M80" s="3">
         <v>7</v>
       </c>
       <c r="N80" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W80">
-    <sortState ref="A3:W80">
-      <sortCondition ref="E1:E80"/>
+    <sortState ref="A2:W80">
+      <sortCondition ref="A1:A80"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
